--- a/Output_Backtest/Hierarchical_Risk_Parity_drawdowns.xlsx
+++ b/Output_Backtest/Hierarchical_Risk_Parity_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.0166610324949964</v>
+        <v>-0.01666131858287478</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.03368808325077499</v>
+        <v>-0.0336882855465126</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.03764111485345645</v>
+        <v>-0.03764423620743484</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.03233189669566827</v>
+        <v>-0.03233652090240613</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.01158641549479467</v>
+        <v>-0.01159173161152327</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>-0.002052029643163803</v>
+        <v>-0.00206059738746916</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.0067681298207711</v>
+        <v>-0.006777439518191867</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>-0.006700114847677885</v>
+        <v>-0.006709061243304354</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.02054129044911206</v>
+        <v>-0.02055067976982773</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.04712867583085868</v>
+        <v>-0.04713911560742075</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.04302485168104403</v>
+        <v>-0.0430346360453927</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.04053269908229112</v>
+        <v>-0.04054546336953774</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.0315285680074137</v>
+        <v>-0.0315416573538954</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.03196812700176984</v>
+        <v>-0.03198200963762672</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>-0.02460012180414487</v>
+        <v>-0.02461397633795853</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>-0.01705281811696424</v>
+        <v>-0.01706694105405368</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>-0.01632508402817509</v>
+        <v>-0.01633985035806488</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>-0.009626454385033692</v>
+        <v>-0.009641463251844755</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>-0.001454947818012197</v>
+        <v>-0.00146978417768334</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>-0.005170160695362335</v>
+        <v>-0.005185083914268898</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>-0.002322030743958009</v>
+        <v>-0.0023365068563219</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>-0.001169421959515515</v>
+        <v>-0.001183748687943651</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>-0.002009647653544867</v>
+        <v>-0.002009411688824585</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.0150462609402854</v>
+        <v>-0.01504558359511178</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.01251402416332923</v>
+        <v>-0.01251322403825296</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.01944791185097588</v>
+        <v>-0.01944665562898594</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.01267808573914958</v>
+        <v>-0.01277727837354025</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.01519186090238752</v>
+        <v>-0.01529768544406171</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>-0.01072815185637142</v>
+        <v>-0.01088458035221885</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>-0.006060389986335075</v>
+        <v>-0.006207331984676709</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.01036667010584335</v>
+        <v>-0.01053160203714578</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.02618607122911161</v>
+        <v>-0.02644196236639043</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.02393242227730917</v>
+        <v>-0.02417550996601357</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.02314152991871193</v>
+        <v>-0.02293730634645919</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>-0.00172327414413071</v>
+        <v>-0.001975509975331126</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.01888438179375744</v>
+        <v>-0.02138926608047294</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>-0.002332743408578519</v>
+        <v>-0.002192273720683938</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.004841680203373856</v>
+        <v>-0.0046333968882209</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.01156878510595514</v>
+        <v>-0.0114403190458628</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.004983981759779084</v>
+        <v>-0.004956490520087333</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.01745548399424499</v>
+        <v>-0.01743802910003009</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.03094821022545197</v>
+        <v>-0.03096349186499659</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.02293462763283287</v>
+        <v>-0.0229800689252413</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.01859826780390681</v>
+        <v>-0.01865011796667971</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>-0.01055551110391292</v>
+        <v>-0.01067824269504641</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>-0.002207079179436924</v>
+        <v>-0.002281523015014112</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>-0.003555752612383846</v>
+        <v>-0.003635684801304653</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.01561282993727366</v>
+        <v>-0.01572722522774896</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.01386549781471188</v>
+        <v>-0.01402519142075563</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01622013670703338</v>
+        <v>-0.0162623200243021</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.01248400077864915</v>
+        <v>-0.01259096739150615</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.03603036235967805</v>
+        <v>-0.0360775791697797</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.04474164625803755</v>
+        <v>-0.04468953541686709</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.06719761173415537</v>
+        <v>-0.06718380970726398</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.1022930003572913</v>
+        <v>-0.1022954831146935</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.09910170130503961</v>
+        <v>-0.0991618530328674</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1185803886813637</v>
+        <v>-0.1174193143961291</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.09645608094492958</v>
+        <v>-0.09628499980821197</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.12059799444897</v>
+        <v>-0.12029717113065</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1631590646275587</v>
+        <v>-0.1593174600616833</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.1709878037913761</v>
+        <v>-0.1656312716322439</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1351580274689379</v>
+        <v>-0.1326023365824566</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1404049817782139</v>
+        <v>-0.138730340901968</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1082956864729914</v>
+        <v>-0.1082470222075303</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1336010373842473</v>
+        <v>-0.1327653924898654</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.1102824302088556</v>
+        <v>-0.1099945923877855</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.1055461010293497</v>
+        <v>-0.1057044394558089</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1192503632963569</v>
+        <v>-0.1183799680698828</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.1158016763370545</v>
+        <v>-0.1156265916132596</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.1068797883170031</v>
+        <v>-0.106817204830589</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1110185757866174</v>
+        <v>-0.1109781248293367</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1260276802419159</v>
+        <v>-0.1259559459645896</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1391657049943473</v>
+        <v>-0.1388649133249754</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.1108422539946018</v>
+        <v>-0.1110403351408952</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.0868682851123786</v>
+        <v>-0.08652670280744375</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.08879568582387749</v>
+        <v>-0.08835876095859285</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.09147938350781533</v>
+        <v>-0.0915180248142892</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.07488890376469309</v>
+        <v>-0.07618095041481365</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.09051276945984413</v>
+        <v>-0.09266481455384373</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.07855950415707948</v>
+        <v>-0.08047130018904977</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.07150410840587522</v>
+        <v>-0.07325624258586119</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.05026144290377377</v>
+        <v>-0.05229923746260742</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.03887541531984426</v>
+        <v>-0.04105320425532683</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>-0.02439127739488203</v>
+        <v>-0.02683465292869665</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>-0.03816737168548895</v>
+        <v>-0.04177780040255503</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.04656111917964292</v>
+        <v>-0.04929299594598512</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Hierarchical_Risk_Parity_drawdowns.xlsx
+++ b/Output_Backtest/Hierarchical_Risk_Parity_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.01666131858287478</v>
+        <v>-0.01666061226177085</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.0336882855465126</v>
+        <v>-0.03368656113972213</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.03764423620743484</v>
+        <v>-0.03764748038218013</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.03233652090240613</v>
+        <v>-0.03234069279181429</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.01159173161152327</v>
+        <v>-0.01159628035190174</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>-0.00206059738746916</v>
+        <v>-0.002071936902267773</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.006777439518191867</v>
+        <v>-0.006790612889851737</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>-0.006709061243304354</v>
+        <v>-0.00672150612814598</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.02055067976982773</v>
+        <v>-0.02056418876296616</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.04713911560742075</v>
+        <v>-0.04714732105200042</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.0430346360453927</v>
+        <v>-0.04304212447223203</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.04054546336953774</v>
+        <v>-0.04055194641247219</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.0315416573538954</v>
+        <v>-0.03154872550893938</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.03198200963762672</v>
+        <v>-0.03198827993687952</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>-0.02461397633795853</v>
+        <v>-0.02462059898859912</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>-0.01706694105405368</v>
+        <v>-0.01707336393329243</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>-0.01633985035806488</v>
+        <v>-0.01634604081085292</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>-0.009641463251844755</v>
+        <v>-0.009647395877999673</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>-0.00146978417768334</v>
+        <v>-0.001476294740964263</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>-0.005185083914268898</v>
+        <v>-0.005191361559596816</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>-0.0023365068563219</v>
+        <v>-0.002343085913894768</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>-0.001183748687943651</v>
+        <v>-0.001190332826787082</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>-0.002009411688824585</v>
+        <v>-0.002009638341163325</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.01504558359511178</v>
+        <v>-0.01504575417692702</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.01251322403825296</v>
+        <v>-0.0125136630288236</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.01944665562898594</v>
+        <v>-0.01944774393574309</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.01277727837354025</v>
+        <v>-0.01277859066811924</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.01529768544406171</v>
+        <v>-0.01529894368039332</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>-0.01088458035221885</v>
+        <v>-0.01088554330623849</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>-0.006207331984676709</v>
+        <v>-0.006208260176406984</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.01053160203714578</v>
+        <v>-0.01053268495697825</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.02644196236639043</v>
+        <v>-0.02644277598995081</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.02417550996601357</v>
+        <v>-0.02417632757211031</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.02293730634645919</v>
+        <v>-0.02293809092986479</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>-0.001975509975331126</v>
+        <v>-0.001790335121419652</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.02138926608047294</v>
+        <v>-0.01897130425563057</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>-0.002192273720683938</v>
+        <v>-0.002153890133630889</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.0046333968882209</v>
+        <v>-0.004246388954459433</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.0114403190458628</v>
+        <v>-0.01151386399987355</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.004956490520087333</v>
+        <v>-0.004823260295254328</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.01743802910003009</v>
+        <v>-0.01738751601084074</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.03096349186499659</v>
+        <v>-0.0311189181211995</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.0229800689252413</v>
+        <v>-0.0232996001511317</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.01865011796667971</v>
+        <v>-0.01900743357592405</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>-0.01067824269504641</v>
+        <v>-0.01141726179916092</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>-0.002281523015014112</v>
+        <v>-0.002788455870355947</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>-0.003635684801304653</v>
+        <v>-0.004174084781262691</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.01572722522774896</v>
+        <v>-0.01643462230550001</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.01402519142075563</v>
+        <v>-0.0150342317218142</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.0162623200243021</v>
+        <v>-0.01665655825900425</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.01259096739150615</v>
+        <v>-0.01330825397777533</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.0360775791697797</v>
+        <v>-0.03642534742316109</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.04468953541686709</v>
+        <v>-0.0444944025611106</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.06718380970726398</v>
+        <v>-0.06715952716919528</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.1022954831146935</v>
+        <v>-0.1020359409997341</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.0991618530328674</v>
+        <v>-0.09898318846177455</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1174193143961291</v>
+        <v>-0.1182408556254281</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.09628499980821197</v>
+        <v>-0.09710262925413121</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.12029717113065</v>
+        <v>-0.1211065157438812</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1593174600616833</v>
+        <v>-0.1626376185246266</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.1656312716322439</v>
+        <v>-0.1701870335032685</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1326023365824566</v>
+        <v>-0.1345215393141543</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.138730340901968</v>
+        <v>-0.1395663659038461</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1082470222075303</v>
+        <v>-0.1073690136157332</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1327653924898654</v>
+        <v>-0.1326321251270533</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.1099945923877855</v>
+        <v>-0.1091541979036641</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.1057044394558089</v>
+        <v>-0.1037186675345873</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1183799680698828</v>
+        <v>-0.1162101277588586</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.1156265916132596</v>
+        <v>-0.1136270979768613</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.106817204830589</v>
+        <v>-0.1049091466354711</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1109781248293367</v>
+        <v>-0.1090458512620363</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1259559459645896</v>
+        <v>-0.1241282983466572</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1388649133249754</v>
+        <v>-0.1375022160190497</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.1110403351408952</v>
+        <v>-0.1095930981150386</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.08652670280744375</v>
+        <v>-0.08546479527455697</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.08835876095859285</v>
+        <v>-0.08733274479674058</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.0915180248142892</v>
+        <v>-0.09048397098440136</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.07618095041481365</v>
+        <v>-0.0742838774045934</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.09266481455384373</v>
+        <v>-0.09040550653342677</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.08047130018904977</v>
+        <v>-0.07841285510369185</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.07325624258586119</v>
+        <v>-0.07115794555636266</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.05229923746260742</v>
+        <v>-0.04982187216934445</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.04105320425532683</v>
+        <v>-0.03851236860761655</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>-0.02683465292869665</v>
+        <v>-0.02405422537226092</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>-0.04177780040255503</v>
+        <v>-0.03850633023709677</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.04929299594598512</v>
+        <v>-0.043688954065891</v>
       </c>
     </row>
   </sheetData>
